--- a/Documentacion/Documentos/MinutaTrabajo.xlsx
+++ b/Documentacion/Documentos/MinutaTrabajo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Documents\CapaciExpress\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berenice1\Documents\Karina Carmona\CapaciExpress\Documentacion\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9F52E9-5F5D-458F-803C-544744490C5A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="4" activeTab="8" xr2:uid="{70BEFDEF-B9F9-49A9-AD1A-14B5D0E47192}"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Minuta1" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Minuta8" sheetId="9" r:id="rId8"/>
     <sheet name="Minuta9" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="154">
   <si>
     <t>MINUTA DE TRABAJO</t>
   </si>
@@ -492,12 +491,15 @@
   </si>
   <si>
     <t xml:space="preserve">Realizar video para la presentación y revisar codificación, ultima reunión. </t>
+  </si>
+  <si>
+    <t>Jessica González, Karina Carmona</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1091,6 +1093,98 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1117,98 +1211,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2398,13 +2400,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2419,8 +2421,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9258300" y="1409700"/>
-          <a:ext cx="2952750" cy="590550"/>
+          <a:off x="9258300" y="1409699"/>
+          <a:ext cx="2952750" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2765,7 +2767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C4FA0F-FBAA-495A-866A-273C9E23D2D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -2788,54 +2790,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="90">
         <v>43263</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2844,42 +2846,42 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -2890,44 +2892,44 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="67"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
@@ -2938,90 +2940,90 @@
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="85"/>
-      <c r="H22" s="88" t="s">
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="H22" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="90"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="70"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="86"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="36" t="s">
         <v>12</v>
       </c>
@@ -3031,19 +3033,19 @@
       <c r="F23" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>1</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="82"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="5" t="s">
         <v>26</v>
       </c>
@@ -3053,19 +3055,19 @@
       <c r="F24" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>2</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="82"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="27" t="s">
         <v>26</v>
       </c>
@@ -3075,19 +3077,19 @@
       <c r="F25" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>3</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="74"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="19" t="s">
         <v>21</v>
       </c>
@@ -3097,19 +3099,19 @@
       <c r="F26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="82"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="3" t="s">
         <v>21</v>
       </c>
@@ -3124,10 +3126,10 @@
       <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="82"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="5" t="s">
         <v>26</v>
       </c>
@@ -3142,10 +3144,10 @@
       <c r="A29" s="4">
         <v>6</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="82"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
@@ -3158,17 +3160,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="B6:F7"/>
     <mergeCell ref="B8:F8"/>
@@ -3181,12 +3178,17 @@
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3195,7 +3197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1148ABFA-C7F0-4618-A087-17E465369E67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -3216,54 +3218,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="90">
         <v>43264</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -3272,30 +3274,30 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -3306,16 +3308,16 @@
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -3324,67 +3326,67 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="67"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82"/>
-      <c r="H14" s="66" t="s">
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="67"/>
+      <c r="H14" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="21" t="s">
@@ -3398,14 +3400,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
       <c r="H16" s="19">
         <v>1</v>
       </c>
@@ -3417,14 +3419,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
       <c r="H17" s="19">
         <v>2</v>
       </c>
@@ -3436,14 +3438,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
       <c r="H18" s="19">
         <v>3</v>
       </c>
@@ -3455,14 +3457,14 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
       <c r="H19" s="19">
         <v>4</v>
       </c>
@@ -3485,14 +3487,14 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
       <c r="H21" s="19">
         <v>6</v>
       </c>
@@ -3507,10 +3509,10 @@
       <c r="A22" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="86"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="36" t="s">
         <v>12</v>
       </c>
@@ -3525,10 +3527,10 @@
       <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="74"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
@@ -3543,10 +3545,10 @@
       <c r="A24" s="2">
         <v>2</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="82"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="3" t="s">
         <v>38</v>
       </c>
@@ -3561,7 +3563,7 @@
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="76" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="92"/>
@@ -3579,7 +3581,7 @@
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="76" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="92"/>
@@ -3597,7 +3599,7 @@
       <c r="A27" s="4">
         <v>5</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="76" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="92"/>
@@ -3615,7 +3617,7 @@
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="76" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="92"/>
@@ -3633,7 +3635,7 @@
       <c r="A29" s="4">
         <v>7</v>
       </c>
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="76" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="92"/>
@@ -3649,6 +3651,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="H8:J10"/>
     <mergeCell ref="B26:C26"/>
@@ -3658,26 +3680,6 @@
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3686,7 +3688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA19CEE0-4AE2-462E-B34D-93FA1586A7E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -3706,54 +3708,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="90">
         <v>43269</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3762,30 +3764,30 @@
       <c r="B5" s="19">
         <v>3</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -3796,16 +3798,16 @@
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -3814,49 +3816,49 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="66" t="s">
+      <c r="H12" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
       <c r="H13" s="25" t="s">
         <v>52</v>
       </c>
@@ -3868,14 +3870,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="71"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
       <c r="H14" s="23">
         <v>1</v>
       </c>
@@ -3887,14 +3889,14 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
       <c r="H15" s="23">
         <v>2</v>
       </c>
@@ -3906,14 +3908,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
       <c r="H16" s="23">
         <v>3</v>
       </c>
@@ -3936,14 +3938,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="74"/>
       <c r="H18" s="23">
         <v>5</v>
       </c>
@@ -3958,10 +3960,10 @@
       <c r="A19" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="86"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="36" t="s">
         <v>12</v>
       </c>
@@ -3985,10 +3987,10 @@
       <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="74"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="19" t="s">
         <v>38</v>
       </c>
@@ -4012,10 +4014,10 @@
       <c r="A21" s="2">
         <v>2</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="82"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="19" t="s">
         <v>41</v>
       </c>
@@ -4030,7 +4032,7 @@
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="76" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="92"/>
@@ -4048,7 +4050,7 @@
       <c r="A23" s="4">
         <v>4</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="76" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="92"/>
@@ -4064,13 +4066,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A1:F1"/>
@@ -4087,6 +4082,13 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4095,10 +4097,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545CDF5D-2062-4286-BBC5-C14E1CC6FABB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -4115,54 +4117,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="90">
         <v>43270</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -4171,30 +4173,30 @@
       <c r="B5" s="19">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -4205,16 +4207,16 @@
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -4223,32 +4225,32 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
@@ -4260,29 +4262,29 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
-      <c r="H14" s="88" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="H14" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="89"/>
-      <c r="J14" s="90"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
       <c r="H15" s="25" t="s">
         <v>52</v>
       </c>
@@ -4294,14 +4296,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
       <c r="H16" s="19">
         <v>1</v>
       </c>
@@ -4313,14 +4315,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
       <c r="H17" s="23">
         <v>2</v>
       </c>
@@ -4332,14 +4334,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
       <c r="H18" s="23">
         <v>3</v>
       </c>
@@ -4362,14 +4364,14 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
@@ -4393,10 +4395,10 @@
       <c r="A22" s="2">
         <v>1</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="74"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="19" t="s">
         <v>41</v>
       </c>
@@ -4411,10 +4413,10 @@
       <c r="A23" s="2">
         <v>2</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="82"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="19" t="s">
         <v>38</v>
       </c>
@@ -4429,7 +4431,7 @@
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="76" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="92"/>
@@ -4447,7 +4449,7 @@
       <c r="A25" s="4">
         <v>4</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="76" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="92"/>
@@ -4465,7 +4467,7 @@
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="76" t="s">
         <v>88</v>
       </c>
       <c r="C26" s="92"/>
@@ -4483,7 +4485,7 @@
       <c r="A27" s="4">
         <v>6</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="76" t="s">
         <v>90</v>
       </c>
       <c r="C27" s="92"/>
@@ -4499,6 +4501,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
@@ -4515,16 +4527,6 @@
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4532,10 +4534,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13651FC-B812-4427-8764-62367C512B86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
@@ -4552,54 +4554,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="90">
         <v>43272</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -4608,30 +4610,30 @@
       <c r="B5" s="23">
         <v>5</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -4642,16 +4644,16 @@
       <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -4660,68 +4662,68 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
-      <c r="H14" s="88" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="H14" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="89"/>
-      <c r="J14" s="90"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
       <c r="H15" s="39" t="s">
         <v>52</v>
       </c>
@@ -4733,14 +4735,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
       <c r="H16" s="23">
         <v>1</v>
       </c>
@@ -4752,14 +4754,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
       <c r="H17" s="23">
         <v>2</v>
       </c>
@@ -4771,14 +4773,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
       <c r="H18" s="23">
         <v>3</v>
       </c>
@@ -4790,14 +4792,14 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
       <c r="H19" s="23">
         <v>4</v>
       </c>
@@ -4820,14 +4822,14 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
       <c r="H21" s="23">
         <v>6</v>
       </c>
@@ -4842,10 +4844,10 @@
       <c r="A22" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="86"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="36" t="s">
         <v>12</v>
       </c>
@@ -4860,10 +4862,10 @@
       <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="74"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="23" t="s">
         <v>89</v>
       </c>
@@ -4878,10 +4880,10 @@
       <c r="A24" s="2">
         <v>2</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="82"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="23" t="s">
         <v>89</v>
       </c>
@@ -4896,7 +4898,7 @@
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="76" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="92"/>
@@ -4914,7 +4916,7 @@
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="76" t="s">
         <v>103</v>
       </c>
       <c r="C26" s="92"/>
@@ -4932,7 +4934,7 @@
       <c r="A27" s="4">
         <v>5</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="76" t="s">
         <v>104</v>
       </c>
       <c r="C27" s="92"/>
@@ -4950,7 +4952,7 @@
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="76" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="92"/>
@@ -4966,21 +4968,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="H8:J10"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A11:F11"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="B27:C27"/>
@@ -4994,6 +4981,21 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A14:F14"/>
+    <mergeCell ref="H8:J10"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5002,10 +5004,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B86E4A-F288-47B6-843B-E3238DE520EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
@@ -5023,54 +5025,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="90">
         <v>43276</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
@@ -5079,30 +5081,30 @@
       <c r="B5" s="42">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -5113,16 +5115,16 @@
       <c r="A8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -5131,68 +5133,68 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
-      <c r="H14" s="88" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="H14" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="89"/>
-      <c r="J14" s="90"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
       <c r="H15" s="39" t="s">
         <v>52</v>
       </c>
@@ -5204,14 +5206,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
       <c r="H16" s="42">
         <v>1</v>
       </c>
@@ -5223,14 +5225,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
       <c r="H17" s="42">
         <v>2</v>
       </c>
@@ -5242,14 +5244,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
       <c r="H18" s="42">
         <v>3</v>
       </c>
@@ -5272,14 +5274,14 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
       <c r="H20" s="42">
         <v>5</v>
       </c>
@@ -5294,10 +5296,10 @@
       <c r="A21" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="86"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="46" t="s">
         <v>12</v>
       </c>
@@ -5321,10 +5323,10 @@
       <c r="A22" s="2">
         <v>1</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="74"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="42" t="s">
         <v>89</v>
       </c>
@@ -5339,10 +5341,10 @@
       <c r="A23" s="2">
         <v>2</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="82"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="42" t="s">
         <v>38</v>
       </c>
@@ -5357,7 +5359,7 @@
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="76" t="s">
         <v>117</v>
       </c>
       <c r="C24" s="92"/>
@@ -5375,7 +5377,7 @@
       <c r="A25" s="4">
         <v>4</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="76" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="92"/>
@@ -5391,12 +5393,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:F7"/>
@@ -5409,13 +5412,12 @@
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5424,10 +5426,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88DD946-AF28-4907-BF75-BBC3EA2DDF6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
@@ -5445,54 +5447,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="90">
         <v>43277</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
@@ -5501,30 +5503,30 @@
       <c r="B5" s="48">
         <v>7</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -5535,16 +5537,16 @@
       <c r="A8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -5553,68 +5555,68 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
-      <c r="H14" s="88" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="H14" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="89"/>
-      <c r="J14" s="90"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
       <c r="H15" s="39" t="s">
         <v>52</v>
       </c>
@@ -5626,14 +5628,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
       <c r="H16" s="48">
         <v>1</v>
       </c>
@@ -5656,14 +5658,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="74"/>
       <c r="H18" s="48">
         <v>3</v>
       </c>
@@ -5678,10 +5680,10 @@
       <c r="A19" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="86"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="47" t="s">
         <v>12</v>
       </c>
@@ -5705,10 +5707,10 @@
       <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="74"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="48" t="s">
         <v>41</v>
       </c>
@@ -5723,10 +5725,10 @@
       <c r="A21" s="2">
         <v>2</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="82"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="48" t="s">
         <v>40</v>
       </c>
@@ -5741,7 +5743,7 @@
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="76" t="s">
         <v>128</v>
       </c>
       <c r="C22" s="92"/>
@@ -5759,7 +5761,7 @@
       <c r="A23" s="4">
         <v>4</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="76" t="s">
         <v>129</v>
       </c>
       <c r="C23" s="92"/>
@@ -5775,6 +5777,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="H8:J10"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="B23:C23"/>
@@ -5783,21 +5800,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H8:J10"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="B8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5805,11 +5807,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC14D56-7D6B-4EF8-B2DF-71D6854E8DDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:J16"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5826,54 +5828,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="90">
         <v>43279</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
@@ -5882,30 +5884,30 @@
       <c r="B5" s="52">
         <v>7</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -5916,16 +5918,16 @@
       <c r="A8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -5934,68 +5936,68 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
-      <c r="H14" s="88" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="H14" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="89"/>
-      <c r="J14" s="90"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
       <c r="H15" s="39" t="s">
         <v>52</v>
       </c>
@@ -6007,14 +6009,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
       <c r="H16" s="52">
         <v>1</v>
       </c>
@@ -6026,14 +6028,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
       <c r="H17" s="52">
         <v>2</v>
       </c>
@@ -6056,14 +6058,14 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
       <c r="H19" s="52">
         <v>4</v>
       </c>
@@ -6078,10 +6080,10 @@
       <c r="A20" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="86"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="56" t="s">
         <v>12</v>
       </c>
@@ -6096,12 +6098,12 @@
       <c r="A21" s="2">
         <v>1</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="52" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="E21" s="55">
         <v>43285</v>
@@ -6114,10 +6116,10 @@
       <c r="A22" s="2">
         <v>2</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="82"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="52" t="s">
         <v>130</v>
       </c>
@@ -6132,7 +6134,7 @@
       <c r="A23" s="4">
         <v>3</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="76" t="s">
         <v>128</v>
       </c>
       <c r="C23" s="92"/>
@@ -6150,7 +6152,7 @@
       <c r="A24" s="4">
         <v>4</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="76" t="s">
         <v>129</v>
       </c>
       <c r="C24" s="92"/>
@@ -6165,7 +6167,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="76" t="s">
         <v>143</v>
       </c>
       <c r="C25" s="92"/>
@@ -6181,6 +6183,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H8:J10"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A15:F15"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:C2"/>
@@ -6192,20 +6203,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:F7"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H8:J10"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="A15:F15"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6213,11 +6215,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA45684A-991D-4210-AB88-BC08620DCAED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F12"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6234,54 +6236,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="90">
         <v>43285</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
@@ -6290,30 +6292,30 @@
       <c r="B5" s="58">
         <v>7</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -6324,16 +6326,16 @@
       <c r="A8" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -6342,78 +6344,78 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="67"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="H15" s="88" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="H15" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="89"/>
-      <c r="J15" s="90"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
       <c r="H16" s="39" t="s">
         <v>52</v>
       </c>
@@ -6425,14 +6427,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
       <c r="H17" s="58">
         <v>1</v>
       </c>
@@ -6444,14 +6446,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
       <c r="H18" s="58">
         <v>2</v>
       </c>
@@ -6474,14 +6476,14 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
       <c r="H20" s="58">
         <v>4</v>
       </c>
@@ -6496,10 +6498,10 @@
       <c r="A21" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="86"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="57" t="s">
         <v>12</v>
       </c>
@@ -6523,10 +6525,10 @@
       <c r="A22" s="2">
         <v>1</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="74"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="58" t="s">
         <v>40</v>
       </c>
@@ -6539,12 +6541,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:F17"/>
@@ -6555,12 +6557,12 @@
     <mergeCell ref="H8:J10"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
